--- a/biology/Botanique/Penstemon/Penstemon.xlsx
+++ b/biology/Botanique/Penstemon/Penstemon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penstemon est un genre très vaste de plantes à fleur d'Amérique du Nord (et d'Asie orientale) traditionnellement classées dans la famille des Scrophulariaceae.
 D'après la recherche génétique récente, ce genre est aujourd'hui placé dans la très large famille des Plantaginaceae.
@@ -513,7 +525,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amérindiens utilisent depuis longtemps les racines de Penstemon pour soulager les maux de dents mais l'usage principal est aujourd'hui l'horticulture car les Penstemon sont parmi les plus belles fleurs indigènes d'Amérique du Nord.
 L'Europe a cependant toujours été beaucoup plus active dans leur culture, et des centaines d'hybrides ont été conçus depuis le début des années 1800.
